--- a/data-unused/bayisa.wheat.xlsx
+++ b/data-unused/bayisa.wheat.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\drop\rpack\agridat\data-unused\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{256ED74A-C8EB-42C7-B48B-23AF18D79528}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="96" yWindow="108" windowWidth="14208" windowHeight="9360"/>
+    <workbookView xWindow="40965" yWindow="2955" windowWidth="11385" windowHeight="12195" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -12,7 +18,6 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="145621"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -37,7 +42,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -80,16 +85,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -100,14 +103,17 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -145,7 +151,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -217,7 +223,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -390,36 +396,33 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E81"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="16384" width="8.88671875" style="2"/>
-  </cols>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -436,398 +439,398 @@
         <v>1.1922299999999999</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="3">
-        <v>2</v>
-      </c>
-      <c r="B3" s="3">
-        <v>1</v>
-      </c>
-      <c r="C3" s="3">
-        <v>2.5</v>
-      </c>
-      <c r="D3" s="3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="D3" s="2">
         <v>2.8</v>
       </c>
-      <c r="E3" s="3">
+      <c r="E3" s="2">
         <v>1.25214</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="3">
-        <v>3</v>
-      </c>
-      <c r="B4" s="3">
-        <v>1</v>
-      </c>
-      <c r="C4" s="3">
-        <v>2.5</v>
-      </c>
-      <c r="D4" s="3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2">
+        <v>1</v>
+      </c>
+      <c r="C4" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="D4" s="2">
         <v>4.4000000000000004</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E4" s="2">
         <v>1.10406</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="3">
-        <v>4</v>
-      </c>
-      <c r="B5" s="3">
-        <v>1</v>
-      </c>
-      <c r="C5" s="3">
-        <v>2.5</v>
-      </c>
-      <c r="D5" s="3">
-        <v>6</v>
-      </c>
-      <c r="E5" s="3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2">
+        <v>1</v>
+      </c>
+      <c r="C5" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="D5" s="2">
+        <v>6</v>
+      </c>
+      <c r="E5" s="2">
         <v>1.2468300000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A6" s="2">
         <v>5</v>
       </c>
-      <c r="B6" s="3">
-        <v>1</v>
-      </c>
-      <c r="C6" s="3">
-        <v>2.5</v>
-      </c>
-      <c r="D6" s="3">
+      <c r="B6" s="2">
+        <v>1</v>
+      </c>
+      <c r="C6" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="D6" s="2">
         <v>7.6</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E6" s="2">
         <v>1.1163000000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="3">
-        <v>6</v>
-      </c>
-      <c r="B7" s="3">
-        <v>1</v>
-      </c>
-      <c r="C7" s="3">
-        <v>2.5</v>
-      </c>
-      <c r="D7" s="3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" s="2">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2">
+        <v>1</v>
+      </c>
+      <c r="C7" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="D7" s="2">
         <v>9.1999999999999993</v>
       </c>
-      <c r="E7" s="3">
+      <c r="E7" s="2">
         <v>1.3144800000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" s="2">
         <v>7</v>
       </c>
-      <c r="B8" s="3">
-        <v>1</v>
-      </c>
-      <c r="C8" s="3">
-        <v>2.5</v>
-      </c>
-      <c r="D8" s="3">
+      <c r="B8" s="2">
+        <v>1</v>
+      </c>
+      <c r="C8" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="D8" s="2">
         <v>10.8</v>
       </c>
-      <c r="E8" s="3">
+      <c r="E8" s="2">
         <v>1.38618</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" s="2">
         <v>8</v>
       </c>
-      <c r="B9" s="3">
-        <v>1</v>
-      </c>
-      <c r="C9" s="3">
-        <v>2.5</v>
-      </c>
-      <c r="D9" s="3">
+      <c r="B9" s="2">
+        <v>1</v>
+      </c>
+      <c r="C9" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="D9" s="2">
         <v>12.4</v>
       </c>
-      <c r="E9" s="3">
+      <c r="E9" s="2">
         <v>0.96372000000000002</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" s="2">
         <v>9</v>
       </c>
-      <c r="B10" s="3">
-        <v>1</v>
-      </c>
-      <c r="C10" s="3">
-        <v>2.5</v>
-      </c>
-      <c r="D10" s="3">
+      <c r="B10" s="2">
+        <v>1</v>
+      </c>
+      <c r="C10" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="D10" s="2">
         <v>14</v>
       </c>
-      <c r="E10" s="3">
+      <c r="E10" s="2">
         <v>1.0551900000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A11" s="2">
         <v>10</v>
       </c>
-      <c r="B11" s="3">
-        <v>1</v>
-      </c>
-      <c r="C11" s="3">
-        <v>2.5</v>
-      </c>
-      <c r="D11" s="3">
+      <c r="B11" s="2">
+        <v>1</v>
+      </c>
+      <c r="C11" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="D11" s="2">
         <v>15.6</v>
       </c>
-      <c r="E11" s="3">
+      <c r="E11" s="2">
         <v>0.93896999999999997</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A12" s="2">
         <v>11</v>
       </c>
-      <c r="B12" s="3">
-        <v>1</v>
-      </c>
-      <c r="C12" s="3">
-        <v>2.5</v>
-      </c>
-      <c r="D12" s="3">
+      <c r="B12" s="2">
+        <v>1</v>
+      </c>
+      <c r="C12" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="D12" s="2">
         <v>17.2</v>
       </c>
-      <c r="E12" s="3">
+      <c r="E12" s="2">
         <v>1.24407</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A13" s="2">
         <v>12</v>
       </c>
-      <c r="B13" s="3">
-        <v>1</v>
-      </c>
-      <c r="C13" s="3">
-        <v>2.5</v>
-      </c>
-      <c r="D13" s="3">
+      <c r="B13" s="2">
+        <v>1</v>
+      </c>
+      <c r="C13" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="D13" s="2">
         <v>18.8</v>
       </c>
-      <c r="E13" s="3">
+      <c r="E13" s="2">
         <v>1.08006</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="3">
-        <v>13</v>
-      </c>
-      <c r="B14" s="3">
-        <v>1</v>
-      </c>
-      <c r="C14" s="3">
-        <v>2.5</v>
-      </c>
-      <c r="D14" s="3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A14" s="2">
+        <v>13</v>
+      </c>
+      <c r="B14" s="2">
+        <v>1</v>
+      </c>
+      <c r="C14" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="D14" s="2">
         <v>20.399999999999999</v>
       </c>
-      <c r="E14" s="3">
+      <c r="E14" s="2">
         <v>0.87836999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A15" s="2">
         <v>14</v>
       </c>
-      <c r="B15" s="3">
-        <v>1</v>
-      </c>
-      <c r="C15" s="3">
-        <v>2.5</v>
-      </c>
-      <c r="D15" s="3">
+      <c r="B15" s="2">
+        <v>1</v>
+      </c>
+      <c r="C15" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="D15" s="2">
         <v>22</v>
       </c>
-      <c r="E15" s="3">
+      <c r="E15" s="2">
         <v>0.95181000000000004</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A16" s="2">
         <v>15</v>
       </c>
-      <c r="B16" s="3">
-        <v>1</v>
-      </c>
-      <c r="C16" s="3">
-        <v>2.5</v>
-      </c>
-      <c r="D16" s="3">
+      <c r="B16" s="2">
+        <v>1</v>
+      </c>
+      <c r="C16" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="D16" s="2">
         <v>23.6</v>
       </c>
-      <c r="E16" s="3">
+      <c r="E16" s="2">
         <v>1.12923</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A17" s="2">
         <v>16</v>
       </c>
-      <c r="B17" s="3">
-        <v>1</v>
-      </c>
-      <c r="C17" s="3">
-        <v>2.5</v>
-      </c>
-      <c r="D17" s="3">
+      <c r="B17" s="2">
+        <v>1</v>
+      </c>
+      <c r="C17" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="D17" s="2">
         <v>25.2</v>
       </c>
-      <c r="E17" s="3">
+      <c r="E17" s="2">
         <v>1.1943900000000001</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A18" s="2">
         <v>17</v>
       </c>
-      <c r="B18" s="3">
-        <v>1</v>
-      </c>
-      <c r="C18" s="3">
-        <v>2.5</v>
-      </c>
-      <c r="D18" s="3">
+      <c r="B18" s="2">
+        <v>1</v>
+      </c>
+      <c r="C18" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="D18" s="2">
         <v>26.8</v>
       </c>
-      <c r="E18" s="3">
+      <c r="E18" s="2">
         <v>1.37079</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A19" s="2">
         <v>18</v>
       </c>
-      <c r="B19" s="3">
-        <v>1</v>
-      </c>
-      <c r="C19" s="3">
-        <v>2.5</v>
-      </c>
-      <c r="D19" s="3">
+      <c r="B19" s="2">
+        <v>1</v>
+      </c>
+      <c r="C19" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="D19" s="2">
         <v>28.4</v>
       </c>
-      <c r="E19" s="3">
+      <c r="E19" s="2">
         <v>1.11795</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A20" s="2">
         <v>19</v>
       </c>
-      <c r="B20" s="3">
-        <v>1</v>
-      </c>
-      <c r="C20" s="3">
-        <v>2.5</v>
-      </c>
-      <c r="D20" s="3">
+      <c r="B20" s="2">
+        <v>1</v>
+      </c>
+      <c r="C20" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="D20" s="2">
         <v>30</v>
       </c>
-      <c r="E20" s="3">
+      <c r="E20" s="2">
         <v>1.0608299999999999</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" s="3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A21" s="2">
         <v>20</v>
       </c>
-      <c r="B21" s="3">
-        <v>1</v>
-      </c>
-      <c r="C21" s="3">
-        <v>2.5</v>
-      </c>
-      <c r="D21" s="3">
+      <c r="B21" s="2">
+        <v>1</v>
+      </c>
+      <c r="C21" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="D21" s="2">
         <v>31.6</v>
       </c>
-      <c r="E21" s="3">
+      <c r="E21" s="2">
         <v>0.59819999999999995</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" s="3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A22" s="2">
         <v>17</v>
       </c>
-      <c r="B22" s="3">
-        <v>2</v>
-      </c>
-      <c r="C22" s="3">
-        <v>6</v>
-      </c>
-      <c r="D22" s="3">
+      <c r="B22" s="2">
+        <v>2</v>
+      </c>
+      <c r="C22" s="2">
+        <v>6</v>
+      </c>
+      <c r="D22" s="2">
         <v>1.2</v>
       </c>
-      <c r="E22" s="3">
+      <c r="E22" s="2">
         <v>0.96314999999999995</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" s="3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A23" s="2">
         <v>18</v>
       </c>
-      <c r="B23" s="3">
-        <v>2</v>
-      </c>
-      <c r="C23" s="3">
-        <v>6</v>
-      </c>
-      <c r="D23" s="3">
+      <c r="B23" s="2">
+        <v>2</v>
+      </c>
+      <c r="C23" s="2">
+        <v>6</v>
+      </c>
+      <c r="D23" s="2">
         <v>2.8</v>
       </c>
-      <c r="E23" s="3">
+      <c r="E23" s="2">
         <v>1.22655</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" s="3">
-        <v>2</v>
-      </c>
-      <c r="B24" s="3">
-        <v>2</v>
-      </c>
-      <c r="C24" s="3">
-        <v>6</v>
-      </c>
-      <c r="D24" s="3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A24" s="2">
+        <v>2</v>
+      </c>
+      <c r="B24" s="2">
+        <v>2</v>
+      </c>
+      <c r="C24" s="2">
+        <v>6</v>
+      </c>
+      <c r="D24" s="2">
         <v>4.4000000000000004</v>
       </c>
-      <c r="E24" s="3">
+      <c r="E24" s="2">
         <v>1.3342799999999999</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" s="3">
-        <v>1</v>
-      </c>
-      <c r="B25" s="3">
-        <v>2</v>
-      </c>
-      <c r="C25" s="3">
-        <v>6</v>
-      </c>
-      <c r="D25" s="3">
-        <v>6</v>
-      </c>
-      <c r="E25" s="3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A25" s="2">
+        <v>1</v>
+      </c>
+      <c r="B25" s="2">
+        <v>2</v>
+      </c>
+      <c r="C25" s="2">
+        <v>6</v>
+      </c>
+      <c r="D25" s="2">
+        <v>6</v>
+      </c>
+      <c r="E25" s="2">
         <v>1.21092</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
         <v>11</v>
       </c>
@@ -844,432 +847,432 @@
         <v>0.99329999999999996</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A27" s="3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A27" s="2">
         <v>20</v>
       </c>
-      <c r="B27" s="3">
-        <v>2</v>
-      </c>
-      <c r="C27" s="3">
-        <v>6</v>
-      </c>
-      <c r="D27" s="3">
+      <c r="B27" s="2">
+        <v>2</v>
+      </c>
+      <c r="C27" s="2">
+        <v>6</v>
+      </c>
+      <c r="D27" s="2">
         <v>9.1999999999999993</v>
       </c>
-      <c r="E27" s="3">
+      <c r="E27" s="2">
         <v>0.83399999999999996</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A28" s="3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A28" s="2">
         <v>15</v>
       </c>
-      <c r="B28" s="3">
-        <v>2</v>
-      </c>
-      <c r="C28" s="3">
-        <v>6</v>
-      </c>
-      <c r="D28" s="3">
+      <c r="B28" s="2">
+        <v>2</v>
+      </c>
+      <c r="C28" s="2">
+        <v>6</v>
+      </c>
+      <c r="D28" s="2">
         <v>10.8</v>
       </c>
-      <c r="E28" s="3">
+      <c r="E28" s="2">
         <v>1.1613899999999999</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A29" s="3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A29" s="2">
         <v>10</v>
       </c>
-      <c r="B29" s="3">
-        <v>2</v>
-      </c>
-      <c r="C29" s="3">
-        <v>6</v>
-      </c>
-      <c r="D29" s="3">
+      <c r="B29" s="2">
+        <v>2</v>
+      </c>
+      <c r="C29" s="2">
+        <v>6</v>
+      </c>
+      <c r="D29" s="2">
         <v>12.4</v>
       </c>
-      <c r="E29" s="3">
+      <c r="E29" s="2">
         <v>0.96909000000000001</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A30" s="3">
-        <v>6</v>
-      </c>
-      <c r="B30" s="3">
-        <v>2</v>
-      </c>
-      <c r="C30" s="3">
-        <v>6</v>
-      </c>
-      <c r="D30" s="3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A30" s="2">
+        <v>6</v>
+      </c>
+      <c r="B30" s="2">
+        <v>2</v>
+      </c>
+      <c r="C30" s="2">
+        <v>6</v>
+      </c>
+      <c r="D30" s="2">
         <v>14</v>
       </c>
-      <c r="E30" s="3">
+      <c r="E30" s="2">
         <v>1.26492</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A31" s="3">
-        <v>13</v>
-      </c>
-      <c r="B31" s="3">
-        <v>2</v>
-      </c>
-      <c r="C31" s="3">
-        <v>6</v>
-      </c>
-      <c r="D31" s="3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A31" s="2">
+        <v>13</v>
+      </c>
+      <c r="B31" s="2">
+        <v>2</v>
+      </c>
+      <c r="C31" s="2">
+        <v>6</v>
+      </c>
+      <c r="D31" s="2">
         <v>15.6</v>
       </c>
-      <c r="E31" s="3">
+      <c r="E31" s="2">
         <v>1.2630600000000001</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A32" s="3">
-        <v>3</v>
-      </c>
-      <c r="B32" s="3">
-        <v>2</v>
-      </c>
-      <c r="C32" s="3">
-        <v>6</v>
-      </c>
-      <c r="D32" s="3">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A32" s="2">
+        <v>3</v>
+      </c>
+      <c r="B32" s="2">
+        <v>2</v>
+      </c>
+      <c r="C32" s="2">
+        <v>6</v>
+      </c>
+      <c r="D32" s="2">
         <v>17.2</v>
       </c>
-      <c r="E32" s="3">
+      <c r="E32" s="2">
         <v>1.19709</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A33" s="3">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A33" s="2">
         <v>9</v>
       </c>
-      <c r="B33" s="3">
-        <v>2</v>
-      </c>
-      <c r="C33" s="3">
-        <v>6</v>
-      </c>
-      <c r="D33" s="3">
+      <c r="B33" s="2">
+        <v>2</v>
+      </c>
+      <c r="C33" s="2">
+        <v>6</v>
+      </c>
+      <c r="D33" s="2">
         <v>18.8</v>
       </c>
-      <c r="E33" s="3">
+      <c r="E33" s="2">
         <v>1.00335</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A34" s="3">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A34" s="2">
         <v>7</v>
       </c>
-      <c r="B34" s="3">
-        <v>2</v>
-      </c>
-      <c r="C34" s="3">
-        <v>6</v>
-      </c>
-      <c r="D34" s="3">
+      <c r="B34" s="2">
+        <v>2</v>
+      </c>
+      <c r="C34" s="2">
+        <v>6</v>
+      </c>
+      <c r="D34" s="2">
         <v>20.399999999999999</v>
       </c>
-      <c r="E34" s="3">
+      <c r="E34" s="2">
         <v>1.1679900000000001</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A35" s="3">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A35" s="2">
         <v>14</v>
       </c>
-      <c r="B35" s="3">
-        <v>2</v>
-      </c>
-      <c r="C35" s="3">
-        <v>6</v>
-      </c>
-      <c r="D35" s="3">
+      <c r="B35" s="2">
+        <v>2</v>
+      </c>
+      <c r="C35" s="2">
+        <v>6</v>
+      </c>
+      <c r="D35" s="2">
         <v>22</v>
       </c>
-      <c r="E35" s="3">
+      <c r="E35" s="2">
         <v>1.1170199999999999</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A36" s="3">
-        <v>4</v>
-      </c>
-      <c r="B36" s="3">
-        <v>2</v>
-      </c>
-      <c r="C36" s="3">
-        <v>6</v>
-      </c>
-      <c r="D36" s="3">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A36" s="2">
+        <v>4</v>
+      </c>
+      <c r="B36" s="2">
+        <v>2</v>
+      </c>
+      <c r="C36" s="2">
+        <v>6</v>
+      </c>
+      <c r="D36" s="2">
         <v>23.6</v>
       </c>
-      <c r="E36" s="3">
+      <c r="E36" s="2">
         <v>1.45665</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A37" s="3">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A37" s="2">
         <v>16</v>
       </c>
-      <c r="B37" s="3">
-        <v>2</v>
-      </c>
-      <c r="C37" s="3">
-        <v>6</v>
-      </c>
-      <c r="D37" s="3">
+      <c r="B37" s="2">
+        <v>2</v>
+      </c>
+      <c r="C37" s="2">
+        <v>6</v>
+      </c>
+      <c r="D37" s="2">
         <v>25.2</v>
       </c>
-      <c r="E37" s="3">
+      <c r="E37" s="2">
         <v>1.2457800000000001</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A38" s="3">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A38" s="2">
         <v>8</v>
       </c>
-      <c r="B38" s="3">
-        <v>2</v>
-      </c>
-      <c r="C38" s="3">
-        <v>6</v>
-      </c>
-      <c r="D38" s="3">
+      <c r="B38" s="2">
+        <v>2</v>
+      </c>
+      <c r="C38" s="2">
+        <v>6</v>
+      </c>
+      <c r="D38" s="2">
         <v>26.8</v>
       </c>
-      <c r="E38" s="3">
+      <c r="E38" s="2">
         <v>1.1958</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A39" s="3">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A39" s="2">
         <v>19</v>
       </c>
-      <c r="B39" s="3">
-        <v>2</v>
-      </c>
-      <c r="C39" s="3">
-        <v>6</v>
-      </c>
-      <c r="D39" s="3">
+      <c r="B39" s="2">
+        <v>2</v>
+      </c>
+      <c r="C39" s="2">
+        <v>6</v>
+      </c>
+      <c r="D39" s="2">
         <v>28.4</v>
       </c>
-      <c r="E39" s="3">
+      <c r="E39" s="2">
         <v>1.4035500000000001</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A40" s="3">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A40" s="2">
         <v>12</v>
       </c>
-      <c r="B40" s="3">
-        <v>2</v>
-      </c>
-      <c r="C40" s="3">
-        <v>6</v>
-      </c>
-      <c r="D40" s="3">
+      <c r="B40" s="2">
+        <v>2</v>
+      </c>
+      <c r="C40" s="2">
+        <v>6</v>
+      </c>
+      <c r="D40" s="2">
         <v>30</v>
       </c>
-      <c r="E40" s="3">
+      <c r="E40" s="2">
         <v>1.1567400000000001</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A41" s="3">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A41" s="2">
         <v>5</v>
       </c>
-      <c r="B41" s="3">
-        <v>2</v>
-      </c>
-      <c r="C41" s="3">
-        <v>6</v>
-      </c>
-      <c r="D41" s="3">
+      <c r="B41" s="2">
+        <v>2</v>
+      </c>
+      <c r="C41" s="2">
+        <v>6</v>
+      </c>
+      <c r="D41" s="2">
         <v>31.6</v>
       </c>
-      <c r="E41" s="3">
+      <c r="E41" s="2">
         <v>1.18893</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A42" s="3">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A42" s="2">
         <v>7</v>
       </c>
-      <c r="B42" s="3">
-        <v>3</v>
-      </c>
-      <c r="C42" s="3">
-        <v>9.5</v>
-      </c>
-      <c r="D42" s="3">
+      <c r="B42" s="2">
+        <v>3</v>
+      </c>
+      <c r="C42" s="2">
+        <v>9.5</v>
+      </c>
+      <c r="D42" s="2">
         <v>1.2</v>
       </c>
-      <c r="E42" s="3">
+      <c r="E42" s="2">
         <v>1.5087299999999999</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A43" s="3">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A43" s="2">
         <v>18</v>
       </c>
-      <c r="B43" s="3">
-        <v>3</v>
-      </c>
-      <c r="C43" s="3">
-        <v>9.5</v>
-      </c>
-      <c r="D43" s="3">
+      <c r="B43" s="2">
+        <v>3</v>
+      </c>
+      <c r="C43" s="2">
+        <v>9.5</v>
+      </c>
+      <c r="D43" s="2">
         <v>2.8</v>
       </c>
-      <c r="E43" s="3">
+      <c r="E43" s="2">
         <v>1.3055099999999999</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A44" s="3">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A44" s="2">
         <v>20</v>
       </c>
-      <c r="B44" s="3">
-        <v>3</v>
-      </c>
-      <c r="C44" s="3">
-        <v>9.5</v>
-      </c>
-      <c r="D44" s="3">
+      <c r="B44" s="2">
+        <v>3</v>
+      </c>
+      <c r="C44" s="2">
+        <v>9.5</v>
+      </c>
+      <c r="D44" s="2">
         <v>4.4000000000000004</v>
       </c>
-      <c r="E44" s="3">
+      <c r="E44" s="2">
         <v>0.96009</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A45" s="3">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A45" s="2">
         <v>17</v>
       </c>
-      <c r="B45" s="3">
-        <v>3</v>
-      </c>
-      <c r="C45" s="3">
-        <v>9.5</v>
-      </c>
-      <c r="D45" s="3">
-        <v>6</v>
-      </c>
-      <c r="E45" s="3">
+      <c r="B45" s="2">
+        <v>3</v>
+      </c>
+      <c r="C45" s="2">
+        <v>9.5</v>
+      </c>
+      <c r="D45" s="2">
+        <v>6</v>
+      </c>
+      <c r="E45" s="2">
         <v>1.19313</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A46" s="3">
-        <v>13</v>
-      </c>
-      <c r="B46" s="3">
-        <v>3</v>
-      </c>
-      <c r="C46" s="3">
-        <v>9.5</v>
-      </c>
-      <c r="D46" s="3">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A46" s="2">
+        <v>13</v>
+      </c>
+      <c r="B46" s="2">
+        <v>3</v>
+      </c>
+      <c r="C46" s="2">
+        <v>9.5</v>
+      </c>
+      <c r="D46" s="2">
         <v>7.6</v>
       </c>
-      <c r="E46" s="3">
+      <c r="E46" s="2">
         <v>1.24824</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A47" s="3">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A47" s="2">
         <v>5</v>
       </c>
-      <c r="B47" s="3">
-        <v>3</v>
-      </c>
-      <c r="C47" s="3">
-        <v>9.5</v>
-      </c>
-      <c r="D47" s="3">
+      <c r="B47" s="2">
+        <v>3</v>
+      </c>
+      <c r="C47" s="2">
+        <v>9.5</v>
+      </c>
+      <c r="D47" s="2">
         <v>9.1999999999999993</v>
       </c>
-      <c r="E47" s="3">
+      <c r="E47" s="2">
         <v>1.2714300000000001</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A48" s="3">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A48" s="2">
         <v>12</v>
       </c>
-      <c r="B48" s="3">
-        <v>3</v>
-      </c>
-      <c r="C48" s="3">
-        <v>9.5</v>
-      </c>
-      <c r="D48" s="3">
+      <c r="B48" s="2">
+        <v>3</v>
+      </c>
+      <c r="C48" s="2">
+        <v>9.5</v>
+      </c>
+      <c r="D48" s="2">
         <v>10.8</v>
       </c>
-      <c r="E48" s="3">
+      <c r="E48" s="2">
         <v>1.2984</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A49" s="3">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A49" s="2">
         <v>8</v>
       </c>
-      <c r="B49" s="3">
-        <v>3</v>
-      </c>
-      <c r="C49" s="3">
-        <v>9.5</v>
-      </c>
-      <c r="D49" s="3">
+      <c r="B49" s="2">
+        <v>3</v>
+      </c>
+      <c r="C49" s="2">
+        <v>9.5</v>
+      </c>
+      <c r="D49" s="2">
         <v>12.4</v>
       </c>
-      <c r="E49" s="3">
+      <c r="E49" s="2">
         <v>1.2873300000000001</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A50" s="3">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A50" s="2">
         <v>10</v>
       </c>
-      <c r="B50" s="3">
-        <v>3</v>
-      </c>
-      <c r="C50" s="3">
-        <v>9.5</v>
-      </c>
-      <c r="D50" s="3">
+      <c r="B50" s="2">
+        <v>3</v>
+      </c>
+      <c r="C50" s="2">
+        <v>9.5</v>
+      </c>
+      <c r="D50" s="2">
         <v>14</v>
       </c>
-      <c r="E50" s="3">
+      <c r="E50" s="2">
         <v>1.2844500000000001</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A51" s="3">
-        <v>2</v>
-      </c>
-      <c r="B51" s="3">
-        <v>3</v>
-      </c>
-      <c r="C51" s="3">
-        <v>9.5</v>
-      </c>
-      <c r="D51" s="3">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A51" s="2">
+        <v>2</v>
+      </c>
+      <c r="B51" s="2">
+        <v>3</v>
+      </c>
+      <c r="C51" s="2">
+        <v>9.5</v>
+      </c>
+      <c r="D51" s="2">
         <v>15.6</v>
       </c>
-      <c r="E51" s="3">
+      <c r="E51" s="2">
         <v>1.42425</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A52" s="1">
         <v>6</v>
       </c>
@@ -1286,245 +1289,245 @@
         <v>1.4692499999999999</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A53" s="3">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A53" s="2">
         <v>19</v>
       </c>
-      <c r="B53" s="3">
-        <v>3</v>
-      </c>
-      <c r="C53" s="3">
-        <v>9.5</v>
-      </c>
-      <c r="D53" s="3">
+      <c r="B53" s="2">
+        <v>3</v>
+      </c>
+      <c r="C53" s="2">
+        <v>9.5</v>
+      </c>
+      <c r="D53" s="2">
         <v>18.8</v>
       </c>
-      <c r="E53" s="3">
+      <c r="E53" s="2">
         <v>1.6212599999999999</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A54" s="3">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A54" s="2">
         <v>16</v>
       </c>
-      <c r="B54" s="3">
-        <v>3</v>
-      </c>
-      <c r="C54" s="3">
-        <v>9.5</v>
-      </c>
-      <c r="D54" s="3">
+      <c r="B54" s="2">
+        <v>3</v>
+      </c>
+      <c r="C54" s="2">
+        <v>9.5</v>
+      </c>
+      <c r="D54" s="2">
         <v>20.399999999999999</v>
       </c>
-      <c r="E54" s="3">
+      <c r="E54" s="2">
         <v>1.53294</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A55" s="3">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A55" s="2">
         <v>14</v>
       </c>
-      <c r="B55" s="3">
-        <v>3</v>
-      </c>
-      <c r="C55" s="3">
-        <v>9.5</v>
-      </c>
-      <c r="D55" s="3">
+      <c r="B55" s="2">
+        <v>3</v>
+      </c>
+      <c r="C55" s="2">
+        <v>9.5</v>
+      </c>
+      <c r="D55" s="2">
         <v>22</v>
       </c>
-      <c r="E55" s="3">
+      <c r="E55" s="2">
         <v>1.3962600000000001</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A56" s="3">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A56" s="2">
         <v>9</v>
       </c>
-      <c r="B56" s="3">
-        <v>3</v>
-      </c>
-      <c r="C56" s="3">
-        <v>9.5</v>
-      </c>
-      <c r="D56" s="3">
+      <c r="B56" s="2">
+        <v>3</v>
+      </c>
+      <c r="C56" s="2">
+        <v>9.5</v>
+      </c>
+      <c r="D56" s="2">
         <v>23.6</v>
       </c>
-      <c r="E56" s="3">
+      <c r="E56" s="2">
         <v>1.4355899999999999</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A57" s="3">
-        <v>3</v>
-      </c>
-      <c r="B57" s="3">
-        <v>3</v>
-      </c>
-      <c r="C57" s="3">
-        <v>9.5</v>
-      </c>
-      <c r="D57" s="3">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A57" s="2">
+        <v>3</v>
+      </c>
+      <c r="B57" s="2">
+        <v>3</v>
+      </c>
+      <c r="C57" s="2">
+        <v>9.5</v>
+      </c>
+      <c r="D57" s="2">
         <v>25.2</v>
       </c>
-      <c r="E57" s="3">
+      <c r="E57" s="2">
         <v>1.2743100000000001</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A58" s="3">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A58" s="2">
         <v>15</v>
       </c>
-      <c r="B58" s="3">
-        <v>3</v>
-      </c>
-      <c r="C58" s="3">
-        <v>9.5</v>
-      </c>
-      <c r="D58" s="3">
+      <c r="B58" s="2">
+        <v>3</v>
+      </c>
+      <c r="C58" s="2">
+        <v>9.5</v>
+      </c>
+      <c r="D58" s="2">
         <v>26.8</v>
       </c>
-      <c r="E58" s="3">
+      <c r="E58" s="2">
         <v>1.14534</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A59" s="3">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A59" s="2">
         <v>11</v>
       </c>
-      <c r="B59" s="3">
-        <v>3</v>
-      </c>
-      <c r="C59" s="3">
-        <v>9.5</v>
-      </c>
-      <c r="D59" s="3">
+      <c r="B59" s="2">
+        <v>3</v>
+      </c>
+      <c r="C59" s="2">
+        <v>9.5</v>
+      </c>
+      <c r="D59" s="2">
         <v>28.4</v>
       </c>
-      <c r="E59" s="3">
+      <c r="E59" s="2">
         <v>1.1579999999999999</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A60" s="3">
-        <v>1</v>
-      </c>
-      <c r="B60" s="3">
-        <v>3</v>
-      </c>
-      <c r="C60" s="3">
-        <v>9.5</v>
-      </c>
-      <c r="D60" s="3">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A60" s="2">
+        <v>1</v>
+      </c>
+      <c r="B60" s="2">
+        <v>3</v>
+      </c>
+      <c r="C60" s="2">
+        <v>9.5</v>
+      </c>
+      <c r="D60" s="2">
         <v>30</v>
       </c>
-      <c r="E60" s="3">
+      <c r="E60" s="2">
         <v>1.44753</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A61" s="3">
-        <v>4</v>
-      </c>
-      <c r="B61" s="3">
-        <v>3</v>
-      </c>
-      <c r="C61" s="3">
-        <v>9.5</v>
-      </c>
-      <c r="D61" s="3">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A61" s="2">
+        <v>4</v>
+      </c>
+      <c r="B61" s="2">
+        <v>3</v>
+      </c>
+      <c r="C61" s="2">
+        <v>9.5</v>
+      </c>
+      <c r="D61" s="2">
         <v>31.6</v>
       </c>
-      <c r="E61" s="3">
+      <c r="E61" s="2">
         <v>0.86951999999999996</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A62" s="3">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A62" s="2">
         <v>8</v>
       </c>
-      <c r="B62" s="3">
-        <v>4</v>
-      </c>
-      <c r="C62" s="3">
-        <v>13</v>
-      </c>
-      <c r="D62" s="3">
+      <c r="B62" s="2">
+        <v>4</v>
+      </c>
+      <c r="C62" s="2">
+        <v>13</v>
+      </c>
+      <c r="D62" s="2">
         <v>1.2</v>
       </c>
-      <c r="E62" s="3">
+      <c r="E62" s="2">
         <v>1.1269499999999999</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A63" s="3">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A63" s="2">
         <v>11</v>
       </c>
-      <c r="B63" s="3">
-        <v>4</v>
-      </c>
-      <c r="C63" s="3">
-        <v>13</v>
-      </c>
-      <c r="D63" s="3">
+      <c r="B63" s="2">
+        <v>4</v>
+      </c>
+      <c r="C63" s="2">
+        <v>13</v>
+      </c>
+      <c r="D63" s="2">
         <v>2.8</v>
       </c>
-      <c r="E63" s="3">
+      <c r="E63" s="2">
         <v>1.2715799999999999</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A64" s="3">
-        <v>6</v>
-      </c>
-      <c r="B64" s="3">
-        <v>4</v>
-      </c>
-      <c r="C64" s="3">
-        <v>13</v>
-      </c>
-      <c r="D64" s="3">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A64" s="2">
+        <v>6</v>
+      </c>
+      <c r="B64" s="2">
+        <v>4</v>
+      </c>
+      <c r="C64" s="2">
+        <v>13</v>
+      </c>
+      <c r="D64" s="2">
         <v>4.4000000000000004</v>
       </c>
-      <c r="E64" s="3">
+      <c r="E64" s="2">
         <v>1.4333400000000001</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A65" s="3">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A65" s="2">
         <v>20</v>
       </c>
-      <c r="B65" s="3">
-        <v>4</v>
-      </c>
-      <c r="C65" s="3">
-        <v>13</v>
-      </c>
-      <c r="D65" s="3">
-        <v>6</v>
-      </c>
-      <c r="E65" s="3">
+      <c r="B65" s="2">
+        <v>4</v>
+      </c>
+      <c r="C65" s="2">
+        <v>13</v>
+      </c>
+      <c r="D65" s="2">
+        <v>6</v>
+      </c>
+      <c r="E65" s="2">
         <v>1.13727</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A66" s="3">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A66" s="2">
         <v>14</v>
       </c>
-      <c r="B66" s="3">
-        <v>4</v>
-      </c>
-      <c r="C66" s="3">
-        <v>13</v>
-      </c>
-      <c r="D66" s="3">
+      <c r="B66" s="2">
+        <v>4</v>
+      </c>
+      <c r="C66" s="2">
+        <v>13</v>
+      </c>
+      <c r="D66" s="2">
         <v>7.6</v>
       </c>
-      <c r="E66" s="3">
+      <c r="E66" s="2">
         <v>1.2859499999999999</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A67" s="1">
         <v>3</v>
       </c>
@@ -1541,241 +1544,241 @@
         <v>1.2786299999999999</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A68" s="3">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A68" s="2">
         <v>5</v>
       </c>
-      <c r="B68" s="3">
-        <v>4</v>
-      </c>
-      <c r="C68" s="3">
-        <v>13</v>
-      </c>
-      <c r="D68" s="3">
+      <c r="B68" s="2">
+        <v>4</v>
+      </c>
+      <c r="C68" s="2">
+        <v>13</v>
+      </c>
+      <c r="D68" s="2">
         <v>10.8</v>
       </c>
-      <c r="E68" s="3">
+      <c r="E68" s="2">
         <v>1.47174</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A69" s="3">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A69" s="2">
         <v>10</v>
       </c>
-      <c r="B69" s="3">
-        <v>4</v>
-      </c>
-      <c r="C69" s="3">
-        <v>13</v>
-      </c>
-      <c r="D69" s="3">
+      <c r="B69" s="2">
+        <v>4</v>
+      </c>
+      <c r="C69" s="2">
+        <v>13</v>
+      </c>
+      <c r="D69" s="2">
         <v>12.4</v>
       </c>
-      <c r="E69" s="3">
+      <c r="E69" s="2">
         <v>1.4100900000000001</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A70" s="3">
-        <v>1</v>
-      </c>
-      <c r="B70" s="3">
-        <v>4</v>
-      </c>
-      <c r="C70" s="3">
-        <v>13</v>
-      </c>
-      <c r="D70" s="3">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A70" s="2">
+        <v>1</v>
+      </c>
+      <c r="B70" s="2">
+        <v>4</v>
+      </c>
+      <c r="C70" s="2">
+        <v>13</v>
+      </c>
+      <c r="D70" s="2">
         <v>14</v>
       </c>
-      <c r="E70" s="3">
+      <c r="E70" s="2">
         <v>1.50213</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A71" s="3">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A71" s="2">
         <v>12</v>
       </c>
-      <c r="B71" s="3">
-        <v>4</v>
-      </c>
-      <c r="C71" s="3">
-        <v>13</v>
-      </c>
-      <c r="D71" s="3">
+      <c r="B71" s="2">
+        <v>4</v>
+      </c>
+      <c r="C71" s="2">
+        <v>13</v>
+      </c>
+      <c r="D71" s="2">
         <v>15.6</v>
       </c>
-      <c r="E71" s="3">
+      <c r="E71" s="2">
         <v>1.3270500000000001</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A72" s="3">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A72" s="2">
         <v>7</v>
       </c>
-      <c r="B72" s="3">
-        <v>4</v>
-      </c>
-      <c r="C72" s="3">
-        <v>13</v>
-      </c>
-      <c r="D72" s="3">
+      <c r="B72" s="2">
+        <v>4</v>
+      </c>
+      <c r="C72" s="2">
+        <v>13</v>
+      </c>
+      <c r="D72" s="2">
         <v>17.2</v>
       </c>
-      <c r="E72" s="3">
+      <c r="E72" s="2">
         <v>1.2465599999999999</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A73" s="3">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A73" s="2">
         <v>19</v>
       </c>
-      <c r="B73" s="3">
-        <v>4</v>
-      </c>
-      <c r="C73" s="3">
-        <v>13</v>
-      </c>
-      <c r="D73" s="3">
+      <c r="B73" s="2">
+        <v>4</v>
+      </c>
+      <c r="C73" s="2">
+        <v>13</v>
+      </c>
+      <c r="D73" s="2">
         <v>18.8</v>
       </c>
-      <c r="E73" s="3">
+      <c r="E73" s="2">
         <v>1.38981</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A74" s="3">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A74" s="2">
         <v>17</v>
       </c>
-      <c r="B74" s="3">
-        <v>4</v>
-      </c>
-      <c r="C74" s="3">
-        <v>13</v>
-      </c>
-      <c r="D74" s="3">
+      <c r="B74" s="2">
+        <v>4</v>
+      </c>
+      <c r="C74" s="2">
+        <v>13</v>
+      </c>
+      <c r="D74" s="2">
         <v>20.399999999999999</v>
       </c>
-      <c r="E74" s="3">
+      <c r="E74" s="2">
         <v>1.4076900000000001</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A75" s="3">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A75" s="2">
         <v>9</v>
       </c>
-      <c r="B75" s="3">
-        <v>4</v>
-      </c>
-      <c r="C75" s="3">
-        <v>13</v>
-      </c>
-      <c r="D75" s="3">
+      <c r="B75" s="2">
+        <v>4</v>
+      </c>
+      <c r="C75" s="2">
+        <v>13</v>
+      </c>
+      <c r="D75" s="2">
         <v>22</v>
       </c>
-      <c r="E75" s="3">
+      <c r="E75" s="2">
         <v>1.36182</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A76" s="3">
-        <v>13</v>
-      </c>
-      <c r="B76" s="3">
-        <v>4</v>
-      </c>
-      <c r="C76" s="3">
-        <v>13</v>
-      </c>
-      <c r="D76" s="3">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A76" s="2">
+        <v>13</v>
+      </c>
+      <c r="B76" s="2">
+        <v>4</v>
+      </c>
+      <c r="C76" s="2">
+        <v>13</v>
+      </c>
+      <c r="D76" s="2">
         <v>23.6</v>
       </c>
-      <c r="E76" s="3">
+      <c r="E76" s="2">
         <v>1.45791</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A77" s="3">
-        <v>4</v>
-      </c>
-      <c r="B77" s="3">
-        <v>4</v>
-      </c>
-      <c r="C77" s="3">
-        <v>13</v>
-      </c>
-      <c r="D77" s="3">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A77" s="2">
+        <v>4</v>
+      </c>
+      <c r="B77" s="2">
+        <v>4</v>
+      </c>
+      <c r="C77" s="2">
+        <v>13</v>
+      </c>
+      <c r="D77" s="2">
         <v>25.2</v>
       </c>
-      <c r="E77" s="3">
+      <c r="E77" s="2">
         <v>1.18266</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A78" s="3">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A78" s="2">
         <v>16</v>
       </c>
-      <c r="B78" s="3">
-        <v>4</v>
-      </c>
-      <c r="C78" s="3">
-        <v>13</v>
-      </c>
-      <c r="D78" s="3">
+      <c r="B78" s="2">
+        <v>4</v>
+      </c>
+      <c r="C78" s="2">
+        <v>13</v>
+      </c>
+      <c r="D78" s="2">
         <v>26.8</v>
       </c>
-      <c r="E78" s="3">
+      <c r="E78" s="2">
         <v>1.19025</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A79" s="3">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A79" s="2">
         <v>15</v>
       </c>
-      <c r="B79" s="3">
-        <v>4</v>
-      </c>
-      <c r="C79" s="3">
-        <v>13</v>
-      </c>
-      <c r="D79" s="3">
+      <c r="B79" s="2">
+        <v>4</v>
+      </c>
+      <c r="C79" s="2">
+        <v>13</v>
+      </c>
+      <c r="D79" s="2">
         <v>28.4</v>
       </c>
-      <c r="E79" s="3">
+      <c r="E79" s="2">
         <v>1.2693300000000001</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A80" s="3">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A80" s="2">
         <v>18</v>
       </c>
-      <c r="B80" s="3">
-        <v>4</v>
-      </c>
-      <c r="C80" s="3">
-        <v>13</v>
-      </c>
-      <c r="D80" s="3">
+      <c r="B80" s="2">
+        <v>4</v>
+      </c>
+      <c r="C80" s="2">
+        <v>13</v>
+      </c>
+      <c r="D80" s="2">
         <v>30</v>
       </c>
-      <c r="E80" s="3">
+      <c r="E80" s="2">
         <v>1.3079099999999999</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A81" s="3">
-        <v>2</v>
-      </c>
-      <c r="B81" s="3">
-        <v>4</v>
-      </c>
-      <c r="C81" s="3">
-        <v>13</v>
-      </c>
-      <c r="D81" s="3">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A81" s="2">
+        <v>2</v>
+      </c>
+      <c r="B81" s="2">
+        <v>4</v>
+      </c>
+      <c r="C81" s="2">
+        <v>13</v>
+      </c>
+      <c r="D81" s="2">
         <v>31.6</v>
       </c>
-      <c r="E81" s="3">
+      <c r="E81" s="2">
         <v>1.45482</v>
       </c>
     </row>
@@ -1786,24 +1789,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
